--- a/literature/Perceptible Time differences.xlsx
+++ b/literature/Perceptible Time differences.xlsx
@@ -5,23 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aron\Google Drive\BA\thesis\deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aron\Google Drive\BA\thesis\literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1981F-819E-4FDF-9B02-92B3FB7A7F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2532242-D61D-45A8-93DC-7111368C2F3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Speech-Related" sheetId="1" r:id="rId1"/>
+    <sheet name="Nonspeech Asynchronies" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Agnew2000" localSheetId="0">Tabelle1!$A$7</definedName>
-    <definedName name="lezzoum2016threshold" localSheetId="0">Tabelle1!$A$2</definedName>
-    <definedName name="Maier2011asynchrony" localSheetId="0">Tabelle1!$A$4</definedName>
-    <definedName name="stone2002tolerable" localSheetId="0">Tabelle1!$A$3</definedName>
-    <definedName name="vanwassenhove2007window" localSheetId="0">Tabelle1!$A$5</definedName>
-    <definedName name="Zakis2012" localSheetId="0">Tabelle1!$A$6</definedName>
+    <definedName name="Agnew2000" localSheetId="0">'Speech-Related'!$A$6</definedName>
+    <definedName name="Bramsloew2010" localSheetId="0">'Speech-Related'!$A$10</definedName>
+    <definedName name="goehring2018tolerable" localSheetId="0">'Speech-Related'!$A$9</definedName>
+    <definedName name="lezzoum2016threshold" localSheetId="0">'Speech-Related'!$A$2</definedName>
+    <definedName name="Maier2011asynchrony" localSheetId="0">'Speech-Related'!$A$4</definedName>
+    <definedName name="stone2002tolerable" localSheetId="0">'Speech-Related'!$A$3</definedName>
+    <definedName name="vanwassenhove2007window" localSheetId="0">'Speech-Related'!$A$5</definedName>
+    <definedName name="Zakis2012" localSheetId="0">'Nonspeech Asynchronies'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,97 +36,250 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>Measured Time</t>
-  </si>
-  <si>
-    <t>Measured What</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>lezzoum2016threshold</t>
   </si>
   <si>
-    <t>16ms</t>
-  </si>
-  <si>
-    <t>echo threshold for speech</t>
-  </si>
-  <si>
-    <t>for shallow fit; with deep fit 26 ms for clean speech. Corrupted speech longer.</t>
-  </si>
-  <si>
     <t>stone2002tolerable</t>
   </si>
   <si>
-    <t>25-30ms</t>
-  </si>
-  <si>
-    <t>speech production not affected below 30ms delay</t>
-  </si>
-  <si>
-    <t>disturbance rating for delayed echo ofown speech</t>
-  </si>
-  <si>
     <t>Maier2011asynchrony</t>
   </si>
   <si>
-    <t>synchronicity rating for lagging speech</t>
-  </si>
-  <si>
-    <t>67ms</t>
-  </si>
-  <si>
-    <t>at 67ms delay, the highest portion of people judged the audio and video to be synchronous</t>
-  </si>
-  <si>
     <t>vanwassenhove2007window</t>
   </si>
   <si>
-    <t>mcGurk effect over temporal asynchronities</t>
-  </si>
-  <si>
-    <t>170ms</t>
-  </si>
-  <si>
-    <t>time, at which fusion effect was still produced. Much more robust when audio is lagging</t>
-  </si>
-  <si>
     <t>Zakis2012</t>
   </si>
   <si>
-    <t>4ms</t>
-  </si>
-  <si>
-    <t>musical delay</t>
-  </si>
-  <si>
-    <t>conclusion: delays smaller than 4ms cannot be detected at all</t>
-  </si>
-  <si>
     <t>Agnew2000</t>
   </si>
   <si>
-    <t>3-5ms</t>
-  </si>
-  <si>
     <t>DAF</t>
   </si>
   <si>
-    <t xml:space="preserve">echo </t>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Audio Device</t>
+  </si>
+  <si>
+    <t>Li2021</t>
+  </si>
+  <si>
+    <t>Vroomen2010</t>
+  </si>
+  <si>
+    <t>Petrini2009</t>
+  </si>
+  <si>
+    <t>What was Measured</t>
+  </si>
+  <si>
+    <t>16ms (shallow) 28ms (deep)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> asked people to identify echo threshold (manipulate slider)</t>
+  </si>
+  <si>
+    <t>SHPD</t>
+  </si>
+  <si>
+    <t>DAF disturbance and speech production rate</t>
+  </si>
+  <si>
+    <t>15ms clean, 20ms noisy, 30ms rate affected</t>
+  </si>
+  <si>
+    <t>7 - 43ms (4 discrete steps)</t>
+  </si>
+  <si>
+    <t>32 NH</t>
+  </si>
+  <si>
+    <t>Clean vs noisy background</t>
+  </si>
+  <si>
+    <t>TWIN synchronicity (own/other voice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67ms highest SJ response/most balanced TOJ</t>
+  </si>
+  <si>
+    <t>-333ms - 333ms</t>
+  </si>
+  <si>
+    <t>9 NH</t>
+  </si>
+  <si>
+    <t>SJ and TOJ task</t>
+  </si>
+  <si>
+    <t>AV TWIN via McGurk Fusion</t>
+  </si>
+  <si>
+    <t>−30 ms to +170 ms</t>
+  </si>
+  <si>
+    <t>-467 ms - 467 ms</t>
+  </si>
+  <si>
+    <t>43 NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McGurk Effect and SJ Task </t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Delay detection in music</t>
+  </si>
+  <si>
+    <t>3.4ms not reliably detected</t>
+  </si>
+  <si>
+    <t>1.4ms - 3.4 ms</t>
+  </si>
+  <si>
+    <t>12 HI musicians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blind paired comparisons, preference rating </t>
+  </si>
+  <si>
+    <t>behind-the-ear, open-canal hearing aid</t>
+  </si>
+  <si>
+    <t>audio-visual onset asynchrony (AVOA)</t>
+  </si>
+  <si>
+    <t>3-5ms noticeable, 30ms objectionable</t>
+  </si>
+  <si>
+    <t>noticeable effects ranged 2.15ms - 7.04ms</t>
+  </si>
+  <si>
+    <t>18 NH</t>
+  </si>
+  <si>
+    <t>delay slider manipulation</t>
+  </si>
+  <si>
+    <t>DSP hearing aid</t>
+  </si>
+  <si>
+    <t>50 \% judged the 200ms delay as synchronous</t>
+  </si>
+  <si>
+    <t>Five SOAs (−400, −200, 0, 200, and 400ms)</t>
+  </si>
+  <si>
+    <t>27 NH</t>
+  </si>
+  <si>
+    <t>SJ Task low/high causality via blurring</t>
+  </si>
+  <si>
+    <t>Meta-study, AV temporal asynchrony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 20ms usually unnoticed </t>
+  </si>
+  <si>
+    <t>SJ and TOJ</t>
+  </si>
+  <si>
+    <t>TWIN for AV Drumming</t>
+  </si>
+  <si>
+    <t>112 ms (TWIN), ~ 80ms highest SJ</t>
+  </si>
+  <si>
+    <t>-266ms - 266ms</t>
+  </si>
+  <si>
+    <t>34 NH, 17 were expert</t>
+  </si>
+  <si>
+    <t>SJ Task</t>
+  </si>
+  <si>
+    <t>Echo Threshold (20% noticed echo)</t>
+  </si>
+  <si>
+    <t>Tolerable Delay (DAF and External)</t>
+  </si>
+  <si>
+    <t>20 NH and 20 HI</t>
+  </si>
+  <si>
+    <t>Annoyance rating, 7 point likert-scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0ms - 50ms </t>
+  </si>
+  <si>
+    <t>0ms - 600ms</t>
+  </si>
+  <si>
+    <t>10–30 ms Tolerable for HI, 10ms for NH</t>
+  </si>
+  <si>
+    <t>circumaural, closed headphones (Sennheiser HD380pro).</t>
+  </si>
+  <si>
+    <t>As a whole, the literature has been taken to support an upper limit of 10 ms for processing delay.</t>
+  </si>
+  <si>
+    <t>Bramsloew2010</t>
+  </si>
+  <si>
+    <t>0ms - 10ms</t>
+  </si>
+  <si>
+    <t>18NH and 18 HI</t>
+  </si>
+  <si>
+    <t>Perceptual preference Selection</t>
+  </si>
+  <si>
+    <t>&lt;10ms</t>
+  </si>
+  <si>
+    <t>Delayed Perception, DAF and External</t>
+  </si>
+  <si>
+    <t>The NH Group showed a small, nonsignificant preference for delay &lt; 10ms</t>
+  </si>
+  <si>
+    <t>open dome hearing aids</t>
+  </si>
+  <si>
+    <t>goehring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,10 +288,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF2E2E2E"/>
-      <name val="Georgia"/>
-      <family val="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -165,10 +344,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,120 +631,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="88.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="64.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" customWidth="1"/>
+    <col min="9" max="9" width="88.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+      <c r="B8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9949D12-B379-420C-90F4-9564F6615902}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>